--- a/22 - Requisitos de Sistema (SSS).xlsx
+++ b/22 - Requisitos de Sistema (SSS).xlsx
@@ -5,18 +5,20 @@
   <sheets>
     <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Página1'!$A$1:$C$25</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjdd8jaMDJDV2Ad9JWi4T5doyVU2w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mimX6beh2uTXC5fbnaJQGkvq+Pc+A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Origem</t>
   </si>
@@ -105,7 +107,7 @@
     <t>SSS-00009</t>
   </si>
   <si>
-    <t>O Sistema DEVE informar ao Voluntario a criação da Pasta solicitada.</t>
+    <t>O Sistema DEVE informar ao Munícipe o status da criação da Pasta solicitada.</t>
   </si>
   <si>
     <t>Receber Análise Técnica</t>
@@ -114,7 +116,7 @@
     <t>SSS-00010</t>
   </si>
   <si>
-    <t>O Sistema DEVE informar ao Voluntario se a Análise Técnica foi aprovada ou recusada.</t>
+    <t>O Sistema DEVE informar ao Munícipe se a Análise Técnica foi aprovada ou recusada.</t>
   </si>
   <si>
     <t>Disponibilizar Análise Técnica</t>
@@ -159,7 +161,7 @@
     <t>SSS-00015</t>
   </si>
   <si>
-    <t>O Sistema DEVE informar aos Voluntarios a disponibilização de novo(s) estudo(s)</t>
+    <t>O Sistema DEVE informar aos Munícipes a disponibilização de novo(s) estudo(s)</t>
   </si>
   <si>
     <t>Receber Requisição para criar Pasta</t>
@@ -180,6 +182,9 @@
     <t>O Sistema DEVE guardar as requisições da Pasta realizadas pela Prefeitura</t>
   </si>
   <si>
+    <t>Criar Pasta Prefeitura</t>
+  </si>
+  <si>
     <t>SSS-00018</t>
   </si>
   <si>
@@ -213,20 +218,26 @@
     <t>SSS-00022</t>
   </si>
   <si>
-    <t>O sistema DEVE permitir filtrar palavras de baixo calão e/ou ofensiva.</t>
+    <t>O sistema DEVE permitir censurar as palavras de baixo calão e/ou ofensivas trocando caracteres por asteriscos.</t>
   </si>
   <si>
     <t>SSS-00023</t>
   </si>
   <si>
     <t>O Sistema DEVE permitir gerenciar os usuários</t>
+  </si>
+  <si>
+    <t>SSS-00024</t>
+  </si>
+  <si>
+    <t>O Sistema DEVE enviar para o administrativo a solicitação da Pasta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -234,7 +245,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -243,10 +254,6 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -270,7 +277,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +286,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4DD0E1"/>
+        <bgColor rgb="FF4DD0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0F7FA"/>
+        <bgColor rgb="FFE0F7FA"/>
       </patternFill>
     </fill>
   </fills>
@@ -319,38 +338,46 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -563,7 +590,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="35.43"/>
-    <col customWidth="1" min="2" max="2" width="11.57"/>
+    <col customWidth="1" min="2" max="2" width="11.14"/>
     <col customWidth="1" min="3" max="3" width="93.14"/>
     <col customWidth="1" min="4" max="4" width="27.0"/>
   </cols>
@@ -579,8 +606,8 @@
         <v>2</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -596,13 +623,13 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -619,13 +646,13 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5"/>
@@ -643,13 +670,13 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5"/>
@@ -667,13 +694,13 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5"/>
@@ -691,13 +718,13 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="7"/>
@@ -715,13 +742,13 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="5"/>
@@ -739,13 +766,13 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="8"/>
@@ -763,13 +790,13 @@
       <c r="D15" s="5"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="5"/>
@@ -787,62 +814,62 @@
       <c r="D17" s="5"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -850,26 +877,33 @@
         <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="9"/>
@@ -2593,6 +2627,12 @@
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$A$1:$C$25">
+    <sortState ref="A1:C25">
+      <sortCondition ref="B1:B25"/>
+      <sortCondition ref="A1:A25"/>
+    </sortState>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>